--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146220.1598684544</v>
+        <v>140357.8398332757</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11350352.15620588</v>
+        <v>11349172.19742504</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>214.849909664865</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>63.86453666137789</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722846</v>
       </c>
       <c r="U3" t="n">
-        <v>22.78476950182937</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>93.52529077486052</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>23.62086370054286</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>135.3475653323432</v>
+        <v>270.496363718428</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226796</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>121.0954842360271</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>72.46646706205534</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>164.8619802011644</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>141.2268758434408</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>96.49397111877846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>212.4142246626347</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>167.5076374112347</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>201.164429748602</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>16.37035733665408</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>67.18636490107413</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>102.0367977922903</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>215.2505143278288</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>161.912633855032</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>105.140938127034</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>34.58803761410394</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383889</v>
+        <v>24.17382596575005</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828902</v>
+        <v>52.06849973565018</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431734</v>
+        <v>70.5760187316785</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459975</v>
+        <v>55.72314698196091</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643948</v>
+        <v>41.29686219380064</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931859</v>
+        <v>41.22330424667975</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908586</v>
+        <v>42.97275566644701</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147799</v>
+        <v>53.79159358883915</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805003</v>
+        <v>41.14384575541119</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922196</v>
+        <v>18.98356133658312</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367788</v>
+        <v>9.88205970103904</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792052</v>
+        <v>88.00800320656636</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879327</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1607.774668967403</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="C2" t="n">
-        <v>1214.599167470333</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="D2" t="n">
-        <v>1214.599167470333</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>812.0156425868779</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>454.6660022683354</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>74.88432743274871</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475499</v>
+        <v>74.88432743274871</v>
       </c>
       <c r="L2" t="n">
-        <v>320.485808066344</v>
+        <v>74.88432743274871</v>
       </c>
       <c r="M2" t="n">
-        <v>858.7445930764369</v>
+        <v>588.4870060424378</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713899</v>
+        <v>1102.089684652127</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606227</v>
+        <v>1542.129285544455</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="V2" t="n">
-        <v>2008.2694146788</v>
+        <v>1733.055528520444</v>
       </c>
       <c r="W2" t="n">
-        <v>2008.2694146788</v>
+        <v>1733.055528520444</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.2694146788</v>
+        <v>1668.545895529153</v>
       </c>
       <c r="Y2" t="n">
-        <v>2008.2694146788</v>
+        <v>1272.055186449755</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653872</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.27622687548</v>
+        <v>1471.526139546295</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.9426819363074</v>
+        <v>227.4403290710341</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7375640022966</v>
+        <v>227.4403290710341</v>
       </c>
       <c r="D4" t="n">
-        <v>619.1044509048113</v>
+        <v>227.4403290710341</v>
       </c>
       <c r="E4" t="n">
-        <v>463.5456387640138</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="F4" t="n">
-        <v>306.2197039769868</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="G4" t="n">
-        <v>137.9656500764323</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>635.760408945692</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>412.6483477623353</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1306.508842917412</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="C5" t="n">
-        <v>913.3333414203428</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="D5" t="n">
-        <v>527.8922126370105</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>114.5970879866902</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>607.917379705219</v>
       </c>
       <c r="M5" t="n">
-        <v>895.7983071407457</v>
+        <v>1121.520058314908</v>
       </c>
       <c r="N5" t="n">
-        <v>1423.609590778208</v>
+        <v>1635.122736924597</v>
       </c>
       <c r="O5" t="n">
-        <v>1863.649191670536</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="V5" t="n">
-        <v>1832.676160441268</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.961447984355</v>
+        <v>1801.933687596291</v>
       </c>
       <c r="X5" t="n">
-        <v>1306.508842917412</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="Y5" t="n">
-        <v>1306.508842917412</v>
+        <v>1412.481082529348</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.8018246066505</v>
+        <v>556.1927859813206</v>
       </c>
       <c r="C6" t="n">
-        <v>572.1475941667427</v>
+        <v>405.5385555414128</v>
       </c>
       <c r="D6" t="n">
-        <v>442.058626788223</v>
+        <v>275.4495881628932</v>
       </c>
       <c r="E6" t="n">
-        <v>305.6121358991107</v>
+        <v>139.0030972737809</v>
       </c>
       <c r="F6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475499</v>
+        <v>50.78821608954519</v>
       </c>
       <c r="L6" t="n">
-        <v>176.1237484101848</v>
+        <v>534.3543019878584</v>
       </c>
       <c r="M6" t="n">
-        <v>714.3825334202777</v>
+        <v>1047.956980597547</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430371</v>
+        <v>1561.559659207237</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021352</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614859</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X6" t="n">
-        <v>1053.912375972105</v>
+        <v>887.3033373467747</v>
       </c>
       <c r="Y6" t="n">
-        <v>874.5981590476118</v>
+        <v>707.989120422282</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1287724922402</v>
+        <v>367.08323544392</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922402</v>
+        <v>367.08323544392</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>367.08323544392</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>367.08323544392</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>209.757300656893</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>871.7442303584737</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>668.928146541023</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>433.2090947092572</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>433.2090947092572</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="V7" t="n">
-        <v>433.2090947092572</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2090947092572</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="X7" t="n">
-        <v>199.1287724922402</v>
+        <v>367.08323544392</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.1287724922402</v>
+        <v>367.08323544392</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1407.425903331219</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="C8" t="n">
-        <v>1014.250401834149</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="D8" t="n">
-        <v>1014.250401834149</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1096.945999082414</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.757282719876</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2056.481540075361</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>2056.481540075361</v>
       </c>
       <c r="V8" t="n">
-        <v>1905.389306738351</v>
+        <v>2056.481540075361</v>
       </c>
       <c r="W8" t="n">
-        <v>1905.389306738351</v>
+        <v>2056.481540075361</v>
       </c>
       <c r="X8" t="n">
-        <v>1905.389306738351</v>
+        <v>2056.481540075361</v>
       </c>
       <c r="Y8" t="n">
-        <v>1807.920649042616</v>
+        <v>2056.481540075361</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081457</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1218.308980114748</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1734.829262705729</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2140.450631422126</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.9452941759961</v>
+        <v>360.2720179860559</v>
       </c>
       <c r="C10" t="n">
-        <v>245.9452941759961</v>
+        <v>360.2720179860559</v>
       </c>
       <c r="D10" t="n">
-        <v>245.9452941759961</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E10" t="n">
-        <v>245.9452941759961</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F10" t="n">
-        <v>245.9452941759961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>531.3840859340952</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>245.9452941759961</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>245.9452941759961</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>245.9452941759961</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>245.9452941759961</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.9452941759961</v>
+        <v>545.4800366773572</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1856.233416454656</v>
+        <v>1388.790614793279</v>
       </c>
       <c r="C11" t="n">
-        <v>1534.85419010378</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572338</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2827.282650873813</v>
+        <v>2659.042609097955</v>
       </c>
       <c r="W11" t="n">
-        <v>2827.282650873813</v>
+        <v>2359.839849212437</v>
       </c>
       <c r="X11" t="n">
-        <v>2509.626320953064</v>
+        <v>2042.183519291687</v>
       </c>
       <c r="Y11" t="n">
-        <v>2184.931887019859</v>
+        <v>1717.489085358482</v>
       </c>
     </row>
     <row r="12">
@@ -5130,10 +5130,10 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>328.0470843355357</v>
+        <v>556.6863671542449</v>
       </c>
       <c r="C13" t="n">
-        <v>229.638241547719</v>
+        <v>556.6863671542449</v>
       </c>
       <c r="D13" t="n">
-        <v>145.8014035964276</v>
+        <v>472.8495292029534</v>
       </c>
       <c r="E13" t="n">
-        <v>145.8014035964276</v>
+        <v>389.0869922083498</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964276</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964276</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,10 +5200,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457737</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127919</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901634</v>
+        <v>938.1512153138207</v>
       </c>
       <c r="X13" t="n">
-        <v>479.3628703726985</v>
+        <v>775.8671682429976</v>
       </c>
       <c r="Y13" t="n">
-        <v>328.0470843355357</v>
+        <v>624.5513822058349</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1618.175009429186</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C14" t="n">
-        <v>1296.79578307831</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937468</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2589.224243848344</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X14" t="n">
-        <v>2271.567913927594</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y14" t="n">
-        <v>1946.873479994389</v>
+        <v>1719.577864530541</v>
       </c>
     </row>
     <row r="15">
@@ -5355,10 +5355,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L15" t="n">
         <v>580.3847592515303</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.6374311877013</v>
+        <v>495.3882169375162</v>
       </c>
       <c r="C16" t="n">
-        <v>460.2285883998843</v>
+        <v>495.3882169375162</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485929</v>
+        <v>411.551378986225</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539892</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="F16" t="n">
-        <v>207.099553813156</v>
+        <v>242.2591823507882</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5446,40 +5446,40 @@
         <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1365.71283314325</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1152.070316531345</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>1045.86734872626</v>
+        <v>741.8597555915628</v>
       </c>
       <c r="W16" t="n">
-        <v>834.3332218036318</v>
+        <v>530.3256286689343</v>
       </c>
       <c r="X16" t="n">
-        <v>672.0491747328088</v>
+        <v>495.3882169375162</v>
       </c>
       <c r="Y16" t="n">
-        <v>672.0491747328088</v>
+        <v>495.3882169375162</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1009.629923393023</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5680,19 +5680,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,7 +5774,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960404</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343044</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655136</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.6987703122995</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222414</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960412</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485496</v>
+        <v>499.9530296343052</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655144</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072225</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388008</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958359</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485127</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>303.7986541368141</v>
+        <v>247.9841471388004</v>
       </c>
       <c r="K29" t="n">
-        <v>662.7810101642759</v>
+        <v>700.0178648958355</v>
       </c>
       <c r="L29" t="n">
-        <v>1249.152663612378</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985345</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286443</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988158</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993088</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108116</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835532</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>262.370649264039</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>726.626098018571</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.21948246417</v>
+        <v>1176.159676832146</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508751</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146213</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038541</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380776</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281943</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>352.4112837456083</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>835.9773696439215</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929732</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918666</v>
+        <v>309.3853606404874</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245272</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612313</v>
+        <v>226.0316571652547</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431918</v>
+        <v>86.73045008374226</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082764</v>
+        <v>313.5178165860868</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736106</v>
+        <v>611.4615154993335</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>794.6511495305426</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1069.008037147233</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1264.910118928626</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250211</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395518</v>
+        <v>835.7257283273703</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.314437140073</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045811</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027495</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7193,10 +7193,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829235</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7324,34 +7324,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,16 +7573,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,19 +7810,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>806.619390679759</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214671</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>151.3981012518514</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>433.0361986916928</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920155</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>416.7338824638929</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837492</v>
+        <v>611.1777065035433</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>458.373230748854</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,25 +8216,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>216.8905660381784</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920155</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>277.8653037321014</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8295,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>98.97569223556232</v>
       </c>
       <c r="L6" t="n">
-        <v>224.0281135391706</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837492</v>
+        <v>611.1777065035433</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886039</v>
+        <v>604.162697308398</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431203</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>359.5215849845346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,7 +8535,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>353.4472259067894</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>318.4607528074838</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8778,13 +8778,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L15" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>538.5873532373481</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>177.2623988786017</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>278.2539578070002</v>
       </c>
       <c r="M21" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>691.2645480167031</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10428,16 +10428,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063264</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,13 +10674,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>223.122899967847</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10838,7 +10838,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475136</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10905,22 +10905,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>403.0555909137002</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,7 +11139,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,13 +11148,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>109.343975352165</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>251.2370714721308</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>45.09126120858221</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>58.62440880782452</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>95.25789077293825</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>159.5348557388409</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>87.10030120561808</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>126.0731689860108</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-2.376881533027373e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>995533.1648339826</v>
+        <v>994931.6172202223</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>995533.1648339826</v>
+        <v>994931.6172202223</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886347.312476076</v>
+        <v>886347.3124760763</v>
       </c>
     </row>
     <row r="7">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288531.484949371</v>
+        <v>288531.4849493708</v>
       </c>
       <c r="C2" t="n">
-        <v>288531.4849493707</v>
+        <v>288531.4849493709</v>
       </c>
       <c r="D2" t="n">
-        <v>288531.4849493708</v>
+        <v>288531.4849493709</v>
       </c>
       <c r="E2" t="n">
         <v>254974.437479041</v>
       </c>
       <c r="F2" t="n">
-        <v>254974.4374790409</v>
+        <v>254974.437479041</v>
       </c>
       <c r="G2" t="n">
+        <v>288531.4849493709</v>
+      </c>
+      <c r="H2" t="n">
         <v>288531.4849493708</v>
       </c>
-      <c r="H2" t="n">
-        <v>288531.4849493707</v>
-      </c>
       <c r="I2" t="n">
-        <v>288531.4849493708</v>
+        <v>288531.4849493709</v>
       </c>
       <c r="J2" t="n">
-        <v>288531.4849493701</v>
+        <v>288531.4849493705</v>
       </c>
       <c r="K2" t="n">
         <v>288531.4849493703</v>
       </c>
       <c r="L2" t="n">
-        <v>288531.4849493706</v>
+        <v>288531.4849493711</v>
       </c>
       <c r="M2" t="n">
         <v>288531.4849493708</v>
@@ -26350,10 +26350,10 @@
         <v>288531.4849493708</v>
       </c>
       <c r="O2" t="n">
-        <v>288531.4849493709</v>
+        <v>288531.4849493707</v>
       </c>
       <c r="P2" t="n">
-        <v>288531.4849493707</v>
+        <v>288531.4849493708</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401323</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539659</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166293</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166293</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
+        <v>99893.08150805102</v>
+      </c>
+      <c r="F4" t="n">
         <v>99893.08150805105</v>
-      </c>
-      <c r="F4" t="n">
-        <v>99893.08150805101</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26439,13 +26439,13 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544783</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,7 +26454,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173851</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149303.2708366654</v>
+        <v>-145553.3726361311</v>
       </c>
       <c r="C6" t="n">
-        <v>32901.67745519028</v>
+        <v>28305.28439792432</v>
       </c>
       <c r="D6" t="n">
-        <v>26885.8757974171</v>
+        <v>19149.58657402583</v>
       </c>
       <c r="E6" t="n">
-        <v>-10227.22520289515</v>
+        <v>-10436.95674958468</v>
       </c>
       <c r="F6" t="n">
-        <v>101895.3362711495</v>
+        <v>101685.6047244598</v>
       </c>
       <c r="G6" t="n">
-        <v>35284.39209753601</v>
+        <v>35284.3920975361</v>
       </c>
       <c r="H6" t="n">
-        <v>82709.71763421778</v>
+        <v>82709.71763421793</v>
       </c>
       <c r="I6" t="n">
+        <v>82709.71763421805</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-123815.9148084949</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76469.94923143444</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17238.52308634199</v>
+      </c>
+      <c r="M6" t="n">
+        <v>39457.19316340686</v>
+      </c>
+      <c r="N6" t="n">
         <v>82709.71763421799</v>
       </c>
-      <c r="J6" t="n">
-        <v>-130332.1999630683</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76469.9492314345</v>
-      </c>
-      <c r="L6" t="n">
-        <v>21287.36029681349</v>
-      </c>
-      <c r="M6" t="n">
-        <v>40508.88817459502</v>
-      </c>
-      <c r="N6" t="n">
-        <v>82709.71763421793</v>
-      </c>
       <c r="O6" t="n">
-        <v>54942.02359144677</v>
+        <v>54942.02359144663</v>
       </c>
       <c r="P6" t="n">
-        <v>82709.71763421787</v>
+        <v>82709.71763421799</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>71.07831239473192</v>
+      </c>
+      <c r="F2" t="n">
         <v>71.07831239473195</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,28 +26805,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293145</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660693</v>
+        <v>78.07030221924573</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551349</v>
+        <v>17.58004954287462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506367</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971653</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407248</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506367</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>197.875584420457</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>321.6935423548958</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758521</v>
       </c>
       <c r="U3" t="n">
-        <v>185.1777423863152</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>60.39847475326043</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>208.1186552943039</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>231.9414793490522</v>
+        <v>96.79268096296744</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343156</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>66.31852263746136</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>50.19551241169346</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>66.87753879368236</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>80.03872057273665</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>296.0318308698264</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>20.94763665081351</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>53.3733031602884</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668787</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,13 +28995,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,28 +29217,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668834</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>30.2722376590126</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901141</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,10 +29533,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>86.65052755599569</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29545,19 +29545,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="R29" t="n">
-        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833259</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>81.1080814089366</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254125</v>
+        <v>76.79385455031715</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,22 +30174,22 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,13 +30402,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30645,19 +30645,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5.636002634529063</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30882,22 +30882,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634528367</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33.71826330950525</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>279.7880289612011</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>326.6735356069747</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>373.0011178946873</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>73.83216285894106</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>127.5638564911762</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.378756902228965</v>
       </c>
       <c r="L6" t="n">
-        <v>133.9677666822523</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>209.9577475604382</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>260.7596670179005</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>227.4725996515698</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35498,13 +35498,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L15" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>453.2152403831814</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>188.193610950082</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634528801</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565485</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634529267</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851016</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751655991</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8774259673912</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>232.7614092820847</v>
+        <v>176.3831193851011</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144216</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>611.0832447409207</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176209</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>43.49509683160332</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>287.733482972993</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504994</v>
+        <v>197.8808906882753</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828622</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,13 +37394,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>137.7507871136803</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37625,22 +37625,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>310.6684688643883</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,13 +37868,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,10 +37950,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724872</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38178,22 +38178,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724865</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
